--- a/3_output/primary_hwws/metareg_hw_prim.xlsx
+++ b/3_output/primary_hwws/metareg_hw_prim.xlsx
@@ -333,44 +333,44 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>59.276229389206407</v>
+        <v>67.379602216065564</v>
       </c>
       <c r="B2">
-        <v>91.042303342292797</v>
+        <v>80.237663693317458</v>
       </c>
       <c r="C2">
-        <v>71.397191991820336</v>
+        <v>77.16688249899606</v>
       </c>
       <c r="D2">
-        <v>91.408576438967714</v>
+        <v>78.783510125191853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.0014227771056205</v>
+        <v>0.0030878450032066</v>
       </c>
       <c r="B3">
-        <v>0.30292249400678573</v>
+        <v>0.1000864662499364</v>
       </c>
       <c r="C3">
-        <v>0.095724854707441701</v>
+        <v>0.1455689483641742</v>
       </c>
       <c r="D3">
-        <v>0.92016282918555426</v>
+        <v>0.84286268013084653</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>73.765024139619001</v>
+        <v>78.238519169724668</v>
       </c>
       <c r="B4">
-        <v>90.835919259031499</v>
+        <v>79.487992516267411</v>
       </c>
       <c r="C4">
-        <v>73.765024139619001</v>
+        <v>78.238519169724668</v>
       </c>
       <c r="D4">
-        <v>90.835919259031499</v>
+        <v>79.487992516267411</v>
       </c>
     </row>
     <row r="6">
@@ -381,10 +381,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>0.28161708241031397</v>
+        <v>0.29686758912511535</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.33684400247391666</v>
+        <v>-0.34980748188095723</v>
       </c>
     </row>
     <row r="7">
@@ -395,10 +395,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="7">
-        <v>0.16804450670569857</v>
+        <v>0.22919486478994611</v>
       </c>
       <c r="D7" s="8">
-        <v>-0.3888112759899261</v>
+        <v>-0.38306912580524427</v>
       </c>
     </row>
     <row r="8">
@@ -409,10 +409,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="11">
-        <v>0.15894766305723018</v>
+        <v>0.18172846417955976</v>
       </c>
       <c r="D8" s="12">
-        <v>-0.19955433930838729</v>
+        <v>-0.20406191082937408</v>
       </c>
     </row>
     <row r="9">
@@ -423,10 +423,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="15">
-        <v>-0.016896621486535646</v>
+        <v>0.027898832512873093</v>
       </c>
       <c r="D9" s="16">
-        <v>-0.28544110248553833</v>
+        <v>-0.27836757421064839</v>
       </c>
     </row>
   </sheetData>
